--- a/data/Suppliers.xlsx
+++ b/data/Suppliers.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
   <si>
     <t>STT</t>
   </si>
@@ -66,12 +66,108 @@
     <t>Dưa lưới</t>
   </si>
   <si>
+    <t>06/12/2025 09:54:53</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH VÂN</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:55:07</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:43:12</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:43:32</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:42:44</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:43:09</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:42:24</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:42:42</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:41:28</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:41:52</t>
+  </si>
+  <si>
+    <t>Nấm đùi gà</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:34:43</t>
+  </si>
+  <si>
+    <t>ĐẶNG THỊ THÙY DƯƠNG</t>
+  </si>
+  <si>
+    <t>06/12/2025 05:35:09</t>
+  </si>
+  <si>
+    <t>Rau má</t>
+  </si>
+  <si>
+    <t>06/12/2025 04:38:36</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Sang</t>
+  </si>
+  <si>
+    <t>06/12/2025 04:39:19</t>
+  </si>
+  <si>
+    <t>Cà Chua</t>
+  </si>
+  <si>
+    <t>06/12/2025 02:34:08</t>
+  </si>
+  <si>
+    <t>Hà Quốc Vinh</t>
+  </si>
+  <si>
+    <t>06/12/2025 02:34:49</t>
+  </si>
+  <si>
+    <t>Cung Ứng Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Nấm kim châm</t>
+  </si>
+  <si>
+    <t>04/12/2025 23:35:00</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ KIM LOAN</t>
+  </si>
+  <si>
+    <t>05/12/2025 23:37:14</t>
+  </si>
+  <si>
+    <t>Cải xanh</t>
+  </si>
+  <si>
+    <t>05/12/2025 18:11:42</t>
+  </si>
+  <si>
+    <t>Vũ Phước Chân</t>
+  </si>
+  <si>
+    <t>05/12/2025 18:13:41</t>
+  </si>
+  <si>
     <t>05/12/2025 07:31:47</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ BÍCH VÂN</t>
-  </si>
-  <si>
     <t>05/12/2025 07:32:05</t>
   </si>
   <si>
@@ -129,36 +225,18 @@
     <t>05/12/2025 05:53:10</t>
   </si>
   <si>
-    <t>Cà Chua</t>
-  </si>
-  <si>
     <t>05/12/2025 05:41:03</t>
   </si>
   <si>
-    <t>Hà Quốc Vinh</t>
-  </si>
-  <si>
     <t>05/12/2025 05:41:41</t>
   </si>
   <si>
-    <t>Rau má</t>
-  </si>
-  <si>
     <t>05/12/2025 04:56:08</t>
   </si>
   <si>
-    <t>Nguyễn Ngọc Sang</t>
-  </si>
-  <si>
     <t>05/12/2025 04:56:36</t>
   </si>
   <si>
-    <t>Cung Ứng Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
-    <t>Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
     <t>Lê</t>
   </si>
   <si>
@@ -189,21 +267,12 @@
     <t>04/12/2025 09:52:49</t>
   </si>
   <si>
-    <t>Cải xanh</t>
-  </si>
-  <si>
     <t>04/12/2025 05:54:01</t>
   </si>
   <si>
-    <t>Vũ Phước Chân</t>
-  </si>
-  <si>
     <t>04/12/2025 05:58:21</t>
   </si>
   <si>
-    <t>Nấm đùi gà</t>
-  </si>
-  <si>
     <t>04/12/2025 05:49:31</t>
   </si>
   <si>
@@ -225,15 +294,9 @@
     <t>04/12/2025 05:37:50</t>
   </si>
   <si>
-    <t>Nấm kim châm</t>
-  </si>
-  <si>
     <t>04/12/2025 02:48:19</t>
   </si>
   <si>
-    <t>ĐẶNG THỊ THÙY DƯƠNG</t>
-  </si>
-  <si>
     <t>04/12/2025 02:49:08</t>
   </si>
   <si>
@@ -298,9 +361,6 @@
   </si>
   <si>
     <t>02/12/2025 19:30:33</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ KIM LOAN</t>
   </si>
   <si>
     <t>02/12/2025 19:33:52</t>
@@ -1550,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4A16B-8FA1-4B04-953E-5E0AA1B9EFD4}">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1715,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1738,16 +1798,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1761,16 +1821,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1778,22 +1838,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1807,16 +1867,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1830,16 +1890,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1847,22 +1907,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1876,16 +1936,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -1902,13 +1962,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1925,13 +1985,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -1945,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>54</v>
@@ -1962,22 +2022,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1991,16 +2051,16 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -2008,22 +2068,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -2031,22 +2091,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -2060,16 +2120,16 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -2077,22 +2137,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -2106,16 +2166,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -2132,13 +2192,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -2152,16 +2212,16 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -2175,16 +2235,16 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -2192,22 +2252,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -2215,22 +2275,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -2238,22 +2298,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -2261,19 +2321,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>89</v>
@@ -2290,13 +2350,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>91</v>
@@ -2313,13 +2373,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>93</v>
@@ -2376,22 +2436,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -2405,16 +2465,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -2422,22 +2482,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -2445,22 +2505,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -2468,22 +2528,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -2491,22 +2551,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -2520,16 +2580,16 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -2543,16 +2603,16 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -2569,13 +2629,13 @@
         <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -2589,16 +2649,16 @@
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -2606,19 +2666,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>120</v>
@@ -2629,19 +2689,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>122</v>
@@ -2652,19 +2712,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>124</v>
@@ -2675,19 +2735,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>126</v>
@@ -2698,19 +2758,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>128</v>
@@ -2727,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>130</v>
@@ -2744,10 +2804,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>131</v>
@@ -2756,7 +2816,7 @@
         <v>132</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>133</v>
@@ -2767,19 +2827,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>135</v>
@@ -2790,22 +2850,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
@@ -2813,22 +2873,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56">
@@ -2836,19 +2896,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>140</v>
@@ -2859,19 +2919,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>142</v>
@@ -2882,19 +2942,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>144</v>
@@ -2911,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>146</v>
@@ -2928,19 +2988,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>148</v>
@@ -2957,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>150</v>
@@ -2974,22 +3034,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63">
@@ -2997,22 +3057,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64">
@@ -3020,19 +3080,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>156</v>
@@ -3043,19 +3103,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>158</v>
@@ -3066,19 +3126,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>160</v>
@@ -3089,19 +3149,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>162</v>
@@ -3158,19 +3218,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>168</v>
@@ -3187,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>170</v>
@@ -3210,13 +3270,13 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>172</v>
@@ -3227,19 +3287,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>174</v>
@@ -3256,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>176</v>
@@ -3273,19 +3333,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>178</v>
@@ -3296,22 +3356,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="77">
@@ -3319,22 +3379,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78">
@@ -3351,13 +3411,13 @@
         <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79">
@@ -3374,13 +3434,13 @@
         <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80">
@@ -3394,16 +3454,16 @@
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="81">
@@ -3417,16 +3477,16 @@
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="82">
@@ -3440,16 +3500,16 @@
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="83">
@@ -3457,22 +3517,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -3486,16 +3546,16 @@
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -3503,22 +3563,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -3526,19 +3586,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>201</v>
@@ -3549,22 +3609,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -3578,16 +3638,16 @@
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -3595,22 +3655,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -3624,16 +3684,16 @@
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="91">
@@ -3647,16 +3707,16 @@
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="92">
@@ -3670,16 +3730,16 @@
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="93">
@@ -3687,22 +3747,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E93" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="94">
@@ -3710,22 +3770,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="95">
@@ -3733,22 +3793,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="96">
@@ -3756,22 +3816,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="97">
@@ -3785,13 +3845,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>224</v>
@@ -3808,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>226</v>
@@ -3825,10 +3885,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>35</v>
@@ -3837,7 +3897,7 @@
         <v>227</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>228</v>
@@ -3854,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>230</v>
@@ -3877,13 +3937,13 @@
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>232</v>
@@ -3900,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>234</v>
@@ -3917,19 +3977,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>236</v>
@@ -3940,19 +4000,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>238</v>
@@ -3969,13 +4029,13 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>240</v>
@@ -3992,13 +4052,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>242</v>
@@ -4015,13 +4075,13 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>244</v>
@@ -4038,13 +4098,13 @@
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>246</v>
@@ -4061,13 +4121,13 @@
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>248</v>
@@ -4078,19 +4138,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>250</v>
@@ -4107,13 +4167,13 @@
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>252</v>
@@ -4130,13 +4190,13 @@
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>254</v>
@@ -4147,19 +4207,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>256</v>
@@ -4176,13 +4236,13 @@
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>258</v>
@@ -4193,19 +4253,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>260</v>
@@ -4222,13 +4282,13 @@
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>262</v>
@@ -4245,16 +4305,16 @@
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118">
@@ -4268,16 +4328,16 @@
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119">
@@ -4291,16 +4351,16 @@
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120">
@@ -4308,22 +4368,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121">
@@ -4337,16 +4397,16 @@
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122">
@@ -4360,16 +4420,16 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123">
@@ -4377,22 +4437,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124">
@@ -4406,16 +4466,16 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125">
@@ -4423,22 +4483,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126">
@@ -4446,22 +4506,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127">
@@ -4469,22 +4529,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128">
@@ -4492,22 +4552,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129">
@@ -4515,19 +4575,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>285</v>
@@ -4538,19 +4598,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>286</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>287</v>
@@ -4561,19 +4621,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>288</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>289</v>
@@ -4590,13 +4650,13 @@
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>291</v>
@@ -4607,19 +4667,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>292</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>293</v>
@@ -4630,19 +4690,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>295</v>
@@ -4653,22 +4713,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="136">
@@ -4676,22 +4736,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137">
@@ -4699,22 +4759,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="138">
@@ -4722,22 +4782,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139">
@@ -4745,22 +4805,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="140">
@@ -4768,22 +4828,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141">
@@ -4791,22 +4851,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142">
@@ -4814,22 +4874,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143">
@@ -4837,22 +4897,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144">
@@ -4860,22 +4920,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145">
@@ -4883,22 +4943,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146">
@@ -4912,16 +4972,16 @@
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147">
@@ -4935,16 +4995,16 @@
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148">
@@ -4958,13 +5018,13 @@
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>322</v>
@@ -4981,13 +5041,13 @@
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>324</v>
@@ -4998,22 +5058,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="151">
@@ -5021,22 +5081,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>325</v>
+        <v>35</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152">
@@ -5044,22 +5104,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153">
@@ -5067,22 +5127,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154">
@@ -5096,16 +5156,16 @@
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155">
@@ -5119,16 +5179,16 @@
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="156">
@@ -5142,16 +5202,16 @@
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157">
@@ -5165,16 +5225,16 @@
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="158">
@@ -5182,22 +5242,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>344</v>
+        <v>200</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="159">
@@ -5211,16 +5271,16 @@
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F159" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="160">
@@ -5234,16 +5294,16 @@
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>180</v>
+        <v>347</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161">
@@ -5251,22 +5311,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162">
@@ -5280,16 +5340,16 @@
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163">
@@ -5303,16 +5363,16 @@
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164">
@@ -5326,16 +5386,16 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165">
@@ -5349,16 +5409,16 @@
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="166">
@@ -5372,16 +5432,16 @@
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>363</v>
+        <v>118</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167">
@@ -5395,16 +5455,16 @@
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="168">
@@ -5412,22 +5472,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169">
@@ -5441,16 +5501,16 @@
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="170">
@@ -5464,16 +5524,16 @@
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171">
@@ -5481,22 +5541,252 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>372</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="G171" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>374</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/data/Suppliers.xlsx
+++ b/data/Suppliers.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
   <si>
     <t>STT</t>
   </si>
@@ -66,12 +66,72 @@
     <t>Dưa lưới</t>
   </si>
   <si>
+    <t>07/12/2025 08:53:48</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH VÂN</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:54:11</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:53:11</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:53:46</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:52:19</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:52:55</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:51:54</t>
+  </si>
+  <si>
+    <t>07/12/2025 08:52:10</t>
+  </si>
+  <si>
+    <t>Xoài Cát</t>
+  </si>
+  <si>
+    <t>07/12/2025 06:16:40</t>
+  </si>
+  <si>
+    <t>TĂNG CẨM HẰNG</t>
+  </si>
+  <si>
+    <t>07/12/2025 06:18:10</t>
+  </si>
+  <si>
+    <t>Rau má</t>
+  </si>
+  <si>
+    <t>07/12/2025 04:10:28</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Sang</t>
+  </si>
+  <si>
+    <t>07/12/2025 04:16:45</t>
+  </si>
+  <si>
+    <t>Cà Chua</t>
+  </si>
+  <si>
+    <t>07/12/2025 03:25:03</t>
+  </si>
+  <si>
+    <t>Hà Quốc Vinh</t>
+  </si>
+  <si>
+    <t>07/12/2025 03:25:37</t>
+  </si>
+  <si>
     <t>06/12/2025 09:54:53</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ BÍCH VÂN</t>
-  </si>
-  <si>
     <t>06/12/2025 09:55:07</t>
   </si>
   <si>
@@ -111,27 +171,15 @@
     <t>06/12/2025 05:35:09</t>
   </si>
   <si>
-    <t>Rau má</t>
-  </si>
-  <si>
     <t>06/12/2025 04:38:36</t>
   </si>
   <si>
-    <t>Nguyễn Ngọc Sang</t>
-  </si>
-  <si>
     <t>06/12/2025 04:39:19</t>
   </si>
   <si>
-    <t>Cà Chua</t>
-  </si>
-  <si>
     <t>06/12/2025 02:34:08</t>
   </si>
   <si>
-    <t>Hà Quốc Vinh</t>
-  </si>
-  <si>
     <t>06/12/2025 02:34:49</t>
   </si>
   <si>
@@ -282,13 +330,7 @@
     <t>04/12/2025 05:49:58</t>
   </si>
   <si>
-    <t>Xoài Cát</t>
-  </si>
-  <si>
     <t>04/12/2025 05:36:35</t>
-  </si>
-  <si>
-    <t>TĂNG CẨM HẰNG</t>
   </si>
   <si>
     <t>04/12/2025 05:37:50</t>
@@ -1610,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4A16B-8FA1-4B04-953E-5E0AA1B9EFD4}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1752,16 +1794,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1775,16 +1817,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1798,16 +1840,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1821,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>32</v>
@@ -1838,22 +1880,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1867,16 +1909,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1893,13 +1935,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -1916,13 +1958,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1936,16 +1978,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -1959,16 +2001,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -1982,16 +2024,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1999,19 +2041,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>54</v>
@@ -2028,16 +2070,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -2051,13 +2093,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>60</v>
@@ -2074,13 +2116,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>62</v>
@@ -2097,13 +2139,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>64</v>
@@ -2120,13 +2162,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>66</v>
@@ -2137,22 +2179,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -2166,16 +2208,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -2192,13 +2234,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -2212,13 +2254,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>76</v>
@@ -2235,13 +2277,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>78</v>
@@ -2252,22 +2294,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -2281,16 +2323,16 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -2298,22 +2340,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -2321,22 +2363,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -2350,16 +2392,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -2373,16 +2415,16 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -2396,16 +2438,16 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -2413,19 +2455,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>97</v>
@@ -2442,13 +2484,13 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>99</v>
@@ -2459,19 +2501,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>101</v>
@@ -2482,19 +2524,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>103</v>
@@ -2505,19 +2547,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>105</v>
@@ -2534,13 +2576,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>107</v>
@@ -2551,19 +2593,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>109</v>
@@ -2580,13 +2622,13 @@
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>111</v>
@@ -2603,13 +2645,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>113</v>
@@ -2626,13 +2668,13 @@
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>115</v>
@@ -2643,19 +2685,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>117</v>
@@ -2666,22 +2708,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -2695,16 +2737,16 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -2712,22 +2754,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -2735,22 +2777,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="50">
@@ -2758,22 +2800,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="51">
@@ -2787,16 +2829,16 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -2810,16 +2852,16 @@
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53">
@@ -2827,22 +2869,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -2856,16 +2898,16 @@
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55">
@@ -2879,16 +2921,16 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="56">
@@ -2896,19 +2938,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>140</v>
@@ -2919,19 +2961,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>142</v>
@@ -2942,19 +2984,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>144</v>
@@ -2971,16 +3013,16 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60">
@@ -2994,16 +3036,16 @@
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61">
@@ -3017,16 +3059,16 @@
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62">
@@ -3034,19 +3076,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>153</v>
@@ -3057,22 +3099,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="64">
@@ -3080,19 +3122,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>156</v>
@@ -3103,19 +3145,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>158</v>
@@ -3126,19 +3168,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>160</v>
@@ -3155,13 +3197,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>162</v>
@@ -3178,13 +3220,13 @@
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>164</v>
@@ -3195,22 +3237,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70">
@@ -3218,22 +3260,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
@@ -3241,19 +3283,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>170</v>
@@ -3264,19 +3306,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>172</v>
@@ -3287,19 +3329,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>174</v>
@@ -3316,13 +3358,13 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>175</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>176</v>
@@ -3333,19 +3375,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>178</v>
@@ -3356,19 +3398,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>179</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>180</v>
@@ -3379,19 +3421,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>182</v>
@@ -3408,13 +3450,13 @@
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>184</v>
@@ -3431,13 +3473,13 @@
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>186</v>
@@ -3454,13 +3496,13 @@
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>188</v>
@@ -3477,13 +3519,13 @@
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>190</v>
@@ -3494,19 +3536,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>192</v>
@@ -3517,19 +3559,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>194</v>
@@ -3540,19 +3582,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>196</v>
@@ -3563,19 +3605,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>198</v>
@@ -3592,16 +3634,16 @@
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -3609,22 +3651,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -3638,16 +3680,16 @@
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -3661,16 +3703,16 @@
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -3678,22 +3720,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -3707,16 +3749,16 @@
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="92">
@@ -3724,22 +3766,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="93">
@@ -3753,13 +3795,13 @@
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>215</v>
@@ -3770,19 +3812,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>217</v>
@@ -3793,19 +3835,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>219</v>
@@ -3816,19 +3858,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>221</v>
@@ -3845,16 +3887,16 @@
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="98">
@@ -3868,16 +3910,16 @@
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="99">
@@ -3885,22 +3927,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="100">
@@ -3914,16 +3956,16 @@
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="101">
@@ -3937,16 +3979,16 @@
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="102">
@@ -3954,22 +3996,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="103">
@@ -3977,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="104">
@@ -4000,19 +4042,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>238</v>
@@ -4029,13 +4071,13 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>239</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>240</v>
@@ -4046,19 +4088,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>242</v>
@@ -4075,13 +4117,13 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>244</v>
@@ -4098,13 +4140,13 @@
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>246</v>
@@ -4121,13 +4163,13 @@
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>248</v>
@@ -4138,19 +4180,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>250</v>
@@ -4161,19 +4203,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>252</v>
@@ -4190,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>254</v>
@@ -4207,19 +4249,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>256</v>
@@ -4236,13 +4278,13 @@
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>258</v>
@@ -4259,13 +4301,13 @@
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>260</v>
@@ -4282,13 +4324,13 @@
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>261</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>262</v>
@@ -4305,13 +4347,13 @@
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>263</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>264</v>
@@ -4328,13 +4370,13 @@
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>265</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>266</v>
@@ -4351,13 +4393,13 @@
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>267</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>268</v>
@@ -4368,19 +4410,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>269</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>270</v>
@@ -4397,13 +4439,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>271</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>272</v>
@@ -4420,13 +4462,13 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>274</v>
@@ -4437,19 +4479,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>275</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>276</v>
@@ -4466,13 +4508,13 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>277</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>278</v>
@@ -4483,19 +4525,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>279</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>280</v>
@@ -4512,13 +4554,13 @@
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>282</v>
@@ -4529,22 +4571,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128">
@@ -4558,16 +4600,16 @@
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129">
@@ -4581,16 +4623,16 @@
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130">
@@ -4598,22 +4640,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131">
@@ -4627,16 +4669,16 @@
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132">
@@ -4644,22 +4686,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133">
@@ -4667,22 +4709,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="134">
@@ -4696,16 +4738,16 @@
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="135">
@@ -4713,19 +4755,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>298</v>
@@ -4736,22 +4778,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="137">
@@ -4759,22 +4801,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="138">
@@ -4782,19 +4824,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>303</v>
@@ -4805,19 +4847,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>305</v>
@@ -4828,19 +4870,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>307</v>
@@ -4851,19 +4893,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>309</v>
@@ -4874,22 +4916,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>310</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="143">
@@ -4897,22 +4939,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144">
@@ -4920,22 +4962,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145">
@@ -4943,19 +4985,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>317</v>
@@ -4966,19 +5008,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>318</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>319</v>
@@ -4989,19 +5031,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>320</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>321</v>
@@ -5012,22 +5054,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149">
@@ -5041,16 +5083,16 @@
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150">
@@ -5058,22 +5100,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151">
@@ -5081,22 +5123,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152">
@@ -5104,22 +5146,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153">
@@ -5127,22 +5169,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154">
@@ -5156,16 +5198,16 @@
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155">
@@ -5179,13 +5221,13 @@
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>336</v>
@@ -5202,13 +5244,13 @@
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>337</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>338</v>
@@ -5219,19 +5261,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>339</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>340</v>
@@ -5242,19 +5284,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>341</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>342</v>
@@ -5265,19 +5307,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>343</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>344</v>
@@ -5288,22 +5330,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="161">
@@ -5317,16 +5359,16 @@
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>345</v>
+        <v>51</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162">
@@ -5340,16 +5382,16 @@
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163">
@@ -5363,16 +5405,16 @@
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164">
@@ -5386,16 +5428,16 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165">
@@ -5409,16 +5451,16 @@
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166">
@@ -5432,16 +5474,16 @@
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="167">
@@ -5455,16 +5497,16 @@
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="168">
@@ -5472,22 +5514,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F168" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="169">
@@ -5501,16 +5543,16 @@
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170">
@@ -5524,16 +5566,16 @@
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171">
@@ -5541,22 +5583,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172">
@@ -5570,16 +5612,16 @@
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173">
@@ -5593,16 +5635,16 @@
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174">
@@ -5616,13 +5658,13 @@
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>35</v>
+        <v>376</v>
       </c>
       <c r="E174" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>379</v>
@@ -5633,22 +5675,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>380</v>
       </c>
       <c r="F175" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="176">
@@ -5662,16 +5704,16 @@
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="177">
@@ -5685,16 +5727,16 @@
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>347</v>
+        <v>214</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="178">
@@ -5702,22 +5744,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179">
@@ -5731,16 +5773,16 @@
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180">
@@ -5754,16 +5796,16 @@
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181">
@@ -5777,16 +5819,177 @@
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>353</v>
+        <v>51</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="G181" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>394</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/data/Suppliers.xlsx
+++ b/data/Suppliers.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
   <si>
     <t>STT</t>
   </si>
@@ -57,6 +57,24 @@
     <t>Thời gian tạo</t>
   </si>
   <si>
+    <t>Cung Ứng Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Sản phẩm nhập khẩu</t>
+  </si>
+  <si>
+    <t>Nấm Kim Châm</t>
+  </si>
+  <si>
+    <t>09/12/2025 08:33:33</t>
+  </si>
+  <si>
+    <t>Phạm Thị Ngọc Thúy</t>
+  </si>
+  <si>
+    <t>09/12/2025 08:34:03</t>
+  </si>
+  <si>
     <t>Cung Ứng Sản phẩm nội địa</t>
   </si>
   <si>
@@ -66,12 +84,162 @@
     <t>Dưa lưới</t>
   </si>
   <si>
+    <t>09/12/2025 07:46:59</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH VÂN</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:47:17</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:46:37</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:46:53</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:46:18</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:46:35</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:45:48</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:46:03</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:45:22</t>
+  </si>
+  <si>
+    <t>09/12/2025 07:45:45</t>
+  </si>
+  <si>
+    <t>Cải xanh</t>
+  </si>
+  <si>
+    <t>09/12/2025 06:42:28</t>
+  </si>
+  <si>
+    <t>Vũ Phước Chân</t>
+  </si>
+  <si>
+    <t>09/12/2025 06:43:08</t>
+  </si>
+  <si>
+    <t>Rau má</t>
+  </si>
+  <si>
+    <t>09/12/2025 04:05:36</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Sang</t>
+  </si>
+  <si>
+    <t>09/12/2025 04:06:20</t>
+  </si>
+  <si>
+    <t>Cà Chua</t>
+  </si>
+  <si>
+    <t>09/12/2025 01:12:05</t>
+  </si>
+  <si>
+    <t>Hà Quốc Vinh</t>
+  </si>
+  <si>
+    <t>09/12/2025 01:12:39</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:50:37</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:51:22</t>
+  </si>
+  <si>
+    <t>Bắp cải trắng</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:25:22</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÀNH LONG</t>
+  </si>
+  <si>
+    <t>08/12/2025 10:25:42</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:34:37</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:34:54</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:34:16</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:34:32</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:33:57</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:34:14</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:32:55</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:33:12</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:32:35</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:32:52</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:32:15</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:32:33</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:31:58</t>
+  </si>
+  <si>
+    <t>08/12/2025 09:32:13</t>
+  </si>
+  <si>
+    <t>Xoài Cát</t>
+  </si>
+  <si>
+    <t>13/12/2025 06:04:00</t>
+  </si>
+  <si>
+    <t>TĂNG CẨM HẰNG</t>
+  </si>
+  <si>
+    <t>08/12/2025 06:05:47</t>
+  </si>
+  <si>
+    <t>08/12/2025 04:45:01</t>
+  </si>
+  <si>
+    <t>08/12/2025 04:45:29</t>
+  </si>
+  <si>
+    <t>07/12/2025 17:31:25</t>
+  </si>
+  <si>
+    <t>07/12/2025 17:32:46</t>
+  </si>
+  <si>
     <t>07/12/2025 08:53:48</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ BÍCH VÂN</t>
-  </si>
-  <si>
     <t>07/12/2025 08:54:11</t>
   </si>
   <si>
@@ -93,39 +261,21 @@
     <t>07/12/2025 08:52:10</t>
   </si>
   <si>
-    <t>Xoài Cát</t>
-  </si>
-  <si>
     <t>07/12/2025 06:16:40</t>
   </si>
   <si>
-    <t>TĂNG CẨM HẰNG</t>
-  </si>
-  <si>
     <t>07/12/2025 06:18:10</t>
   </si>
   <si>
-    <t>Rau má</t>
-  </si>
-  <si>
     <t>07/12/2025 04:10:28</t>
   </si>
   <si>
-    <t>Nguyễn Ngọc Sang</t>
-  </si>
-  <si>
     <t>07/12/2025 04:16:45</t>
   </si>
   <si>
-    <t>Cà Chua</t>
-  </si>
-  <si>
     <t>07/12/2025 03:25:03</t>
   </si>
   <si>
-    <t>Hà Quốc Vinh</t>
-  </si>
-  <si>
     <t>07/12/2025 03:25:37</t>
   </si>
   <si>
@@ -183,12 +333,6 @@
     <t>06/12/2025 02:34:49</t>
   </si>
   <si>
-    <t>Cung Ứng Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
-    <t>Sản phẩm nhập khẩu</t>
-  </si>
-  <si>
     <t>Nấm kim châm</t>
   </si>
   <si>
@@ -201,15 +345,9 @@
     <t>05/12/2025 23:37:14</t>
   </si>
   <si>
-    <t>Cải xanh</t>
-  </si>
-  <si>
     <t>05/12/2025 18:11:42</t>
   </si>
   <si>
-    <t>Vũ Phước Chân</t>
-  </si>
-  <si>
     <t>05/12/2025 18:13:41</t>
   </si>
   <si>
@@ -255,15 +393,9 @@
     <t>05/12/2025 07:14:47</t>
   </si>
   <si>
-    <t>Bắp cải trắng</t>
-  </si>
-  <si>
     <t>05/12/2025 06:02:56</t>
   </si>
   <si>
-    <t>NGUYỄN THÀNH LONG</t>
-  </si>
-  <si>
     <t>05/12/2025 06:03:21</t>
   </si>
   <si>
@@ -324,9 +456,6 @@
     <t>04/12/2025 05:49:31</t>
   </si>
   <si>
-    <t>Phạm Thị Ngọc Thúy</t>
-  </si>
-  <si>
     <t>04/12/2025 05:49:58</t>
   </si>
   <si>
@@ -529,9 +658,6 @@
   </si>
   <si>
     <t>30/11/2025 05:48:32</t>
-  </si>
-  <si>
-    <t>Nấm Kim Châm</t>
   </si>
   <si>
     <t>30/11/2025 05:26:14</t>
@@ -1652,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC4A16B-8FA1-4B04-953E-5E0AA1B9EFD4}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1719,22 +1845,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1742,22 +1868,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1765,22 +1891,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1788,22 +1914,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1811,19 +1937,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>26</v>
@@ -1834,10 +1960,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -1857,22 +1983,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1880,22 +2006,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1903,22 +2029,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1926,22 +2052,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -1949,22 +2075,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1972,22 +2098,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
@@ -1995,22 +2121,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2018,22 +2144,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -2041,19 +2167,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>54</v>
@@ -2064,22 +2190,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -2087,22 +2213,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -2110,19 +2236,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>62</v>
@@ -2133,19 +2259,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>64</v>
@@ -2156,19 +2282,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>66</v>
@@ -2179,19 +2305,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>68</v>
@@ -2202,19 +2328,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>70</v>
@@ -2225,19 +2351,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>72</v>
@@ -2248,22 +2374,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -2271,22 +2397,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -2294,22 +2420,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -2317,22 +2443,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -2340,22 +2466,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -2363,22 +2489,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -2386,22 +2512,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -2409,22 +2535,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -2432,22 +2558,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -2455,22 +2581,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -2478,22 +2604,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -2501,22 +2627,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -2524,22 +2650,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -2547,22 +2673,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -2570,22 +2696,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -2593,22 +2719,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42">
@@ -2616,22 +2742,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43">
@@ -2639,22 +2765,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -2662,22 +2788,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -2685,22 +2811,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46">
@@ -2708,22 +2834,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -2731,22 +2857,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -2754,22 +2880,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -2777,22 +2903,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -2800,22 +2926,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="51">
@@ -2829,16 +2955,16 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -2846,22 +2972,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -2869,19 +2995,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>134</v>
@@ -2892,19 +3018,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>136</v>
@@ -2915,19 +3041,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>138</v>
@@ -2938,19 +3064,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>140</v>
@@ -2961,19 +3087,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>142</v>
@@ -2990,13 +3116,13 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>144</v>
@@ -3013,16 +3139,16 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="60">
@@ -3030,22 +3156,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="61">
@@ -3053,22 +3179,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="62">
@@ -3076,22 +3202,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="63">
@@ -3099,19 +3225,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>154</v>
@@ -3122,19 +3248,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>156</v>
@@ -3145,19 +3271,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>158</v>
@@ -3174,13 +3300,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>160</v>
@@ -3197,13 +3323,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>162</v>
@@ -3214,19 +3340,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>164</v>
@@ -3237,22 +3363,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="70">
@@ -3260,22 +3386,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="71">
@@ -3283,19 +3409,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>170</v>
@@ -3306,19 +3432,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>172</v>
@@ -3329,19 +3455,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>174</v>
@@ -3358,16 +3484,16 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75">
@@ -3375,22 +3501,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76">
@@ -3398,22 +3524,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77">
@@ -3421,22 +3547,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78">
@@ -3450,16 +3576,16 @@
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79">
@@ -3467,22 +3593,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80">
@@ -3490,22 +3616,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81">
@@ -3513,22 +3639,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82">
@@ -3536,22 +3662,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
@@ -3559,22 +3685,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -3582,22 +3708,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -3611,16 +3737,16 @@
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -3634,16 +3760,16 @@
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -3651,22 +3777,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -3674,22 +3800,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -3697,22 +3823,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -3720,22 +3846,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -3749,16 +3875,16 @@
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
@@ -3766,19 +3892,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>212</v>
@@ -3795,16 +3921,16 @@
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="94">
@@ -3812,22 +3938,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="95">
@@ -3835,22 +3961,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="96">
@@ -3858,22 +3984,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="97">
@@ -3881,22 +4007,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="98">
@@ -3910,16 +4036,16 @@
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="99">
@@ -3927,22 +4053,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="100">
@@ -3950,22 +4076,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="101">
@@ -3973,22 +4099,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="102">
@@ -3996,22 +4122,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="103">
@@ -4019,22 +4145,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="104">
@@ -4048,16 +4174,16 @@
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="105">
@@ -4071,16 +4197,16 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106">
@@ -4088,22 +4214,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107">
@@ -4111,22 +4237,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108">
@@ -4134,22 +4260,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109">
@@ -4157,22 +4283,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110">
@@ -4180,22 +4306,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111">
@@ -4203,22 +4329,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112">
@@ -4226,22 +4352,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113">
@@ -4255,16 +4381,16 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114">
@@ -4272,22 +4398,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="115">
@@ -4301,16 +4427,16 @@
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="116">
@@ -4318,22 +4444,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="117">
@@ -4341,22 +4467,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="118">
@@ -4364,22 +4490,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="119">
@@ -4387,22 +4513,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="120">
@@ -4410,22 +4536,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="121">
@@ -4433,22 +4559,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="122">
@@ -4456,22 +4582,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="123">
@@ -4485,16 +4611,16 @@
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="124">
@@ -4508,16 +4634,16 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="125">
@@ -4525,19 +4651,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>279</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>280</v>
@@ -4548,19 +4674,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>282</v>
@@ -4571,19 +4697,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>283</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>284</v>
@@ -4594,19 +4720,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>285</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>286</v>
@@ -4617,19 +4743,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>288</v>
@@ -4640,19 +4766,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>289</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>290</v>
@@ -4669,13 +4795,13 @@
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>291</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>292</v>
@@ -4686,19 +4812,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>293</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>294</v>
@@ -4709,19 +4835,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>295</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>296</v>
@@ -4732,22 +4858,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="135">
@@ -4755,22 +4881,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136">
@@ -4778,22 +4904,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137">
@@ -4801,22 +4927,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138">
@@ -4824,22 +4950,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139">
@@ -4847,22 +4973,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140">
@@ -4870,22 +4996,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141">
@@ -4899,16 +5025,16 @@
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142">
@@ -4916,22 +5042,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143">
@@ -4939,22 +5065,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144">
@@ -4962,22 +5088,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145">
@@ -4985,22 +5111,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146">
@@ -5008,22 +5134,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147">
@@ -5031,22 +5157,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148">
@@ -5054,22 +5180,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149">
@@ -5077,22 +5203,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150">
@@ -5100,22 +5226,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151">
@@ -5123,22 +5249,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152">
@@ -5146,22 +5272,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153">
@@ -5175,16 +5301,16 @@
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="154">
@@ -5192,22 +5318,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="155">
@@ -5215,22 +5341,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="156">
@@ -5238,22 +5364,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="157">
@@ -5261,22 +5387,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158">
@@ -5284,22 +5410,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159">
@@ -5307,22 +5433,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="160">
@@ -5330,22 +5456,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="161">
@@ -5359,16 +5485,16 @@
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="162">
@@ -5376,22 +5502,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163">
@@ -5405,16 +5531,16 @@
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164">
@@ -5428,16 +5554,16 @@
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165">
@@ -5451,16 +5577,16 @@
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="166">
@@ -5474,16 +5600,16 @@
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>357</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="167">
@@ -5497,16 +5623,16 @@
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>359</v>
+        <v>99</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>360</v>
       </c>
       <c r="F167" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="168">
@@ -5520,16 +5646,16 @@
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>359</v>
+        <v>99</v>
       </c>
       <c r="E168" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="169">
@@ -5543,16 +5669,16 @@
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E169" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="170">
@@ -5560,22 +5686,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="171">
@@ -5583,22 +5709,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="172">
@@ -5612,16 +5738,16 @@
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="173">
@@ -5635,16 +5761,16 @@
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174">
@@ -5652,22 +5778,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>376</v>
+        <v>99</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>378</v>
+        <v>256</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175">
@@ -5675,22 +5801,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176">
@@ -5698,22 +5824,22 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="177">
@@ -5721,22 +5847,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178">
@@ -5744,22 +5870,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179">
@@ -5773,16 +5899,16 @@
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="180">
@@ -5796,16 +5922,16 @@
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181">
@@ -5819,16 +5945,16 @@
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="182">
@@ -5836,22 +5962,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>395</v>
+        <v>256</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183">
@@ -5859,22 +5985,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>397</v>
+        <v>99</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184">
@@ -5882,22 +6008,22 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185">
@@ -5905,22 +6031,22 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="186">
@@ -5928,22 +6054,22 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="187">
@@ -5951,22 +6077,22 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="188">
@@ -5974,22 +6100,505 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>408</v>
+      <c r="D196" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
